--- a/data/cystopteridaceae/20200810_vettingCopyNumber_again/copiesPerLocus.xlsx
+++ b/data/cystopteridaceae/20200810_vettingCopyNumber_again/copiesPerLocus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlrothfels/Box Sync/misc/projects/homologizer_WillFreyman/dataset_PURCpaper/20200810_vettingCopyNumber_again/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlrothfels/Box Sync/R_Python_etal/git_repositories/homologizer/data/cystopteridaceae/20200810_vettingCopyNumber_again/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8E3881-233E-4E4E-9FF9-9E5460853DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259EBF4B-A06B-424D-A5F1-BBA05343B31C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="2160" windowWidth="22060" windowHeight="17000" xr2:uid="{AE534D98-65A7-4D43-BDD4-51ADCD2EEBC6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{2AFF8255-60B3-E34E-A6FA-EE9268E83AF2}" name="abio_outputfiles-presence-absence-matrix" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/carlrothfels/Box Sync/R_Python_etal/git_repositories/homologizer/data/cystopteridaceae/finalVersions/z_otherOutput_etc/abio_outputfiles-presence-absence-matrix.txt">
+    <textPr sourceFile="/Users/carlrothfels/Box Sync/R_Python_etal/git_repositories/homologizer/data/cystopteridaceae/finalVersions/z_otherOutput_etc/abio_outputfiles-presence-absence-matrix.txt">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="77">
   <si>
     <t>APP_alloPPnet_version_reduced.nex</t>
   </si>
@@ -238,9 +238,6 @@
     <t>treat as two dips, 1tip each (alleles are sister in the genetrees)</t>
   </si>
   <si>
-    <t>dip, but give two tips, because the allelic variation isn't clear (not sister to each other in either locus)</t>
-  </si>
-  <si>
     <t>tet, 4tips (not clear which homoelogs are alleleic</t>
   </si>
   <si>
@@ -256,22 +253,37 @@
     <t>Fixed this, so that this accession is treated as two diploid individuals</t>
   </si>
   <si>
-    <t>Carl notes (based on will script)</t>
-  </si>
-  <si>
     <t>Fixed this -- _A was swapping with _A</t>
   </si>
   <si>
     <t>Followup script?</t>
   </si>
   <si>
-    <t>Do another analysis with a new tip created here, and see if it helps? (do model comparison with original version?)</t>
-  </si>
-  <si>
     <t>&lt;--was being swapped</t>
   </si>
   <si>
     <t>tofix</t>
+  </si>
+  <si>
+    <t>Carl notes (based on Will's script)</t>
+  </si>
+  <si>
+    <t>Notes to self, commentary</t>
+  </si>
+  <si>
+    <t>CJR - I've gotten myself confused as to the best way to handle these. It's one accession, with one genome history (ILS, etc, aside), but just has allelic variation. So I guess treating it as two diploids makes the most sense?</t>
+  </si>
+  <si>
+    <t>treat 6359 as two dips, 1tip each (no swapping) (alleles are sister in the genetrees)</t>
+  </si>
+  <si>
+    <t>dip, but give two tips and swap, because the allelic variation isn't clear (not sister to each other in either locus)</t>
+  </si>
+  <si>
+    <t>Do another analysis with a new tip created here (swap on three tips), and see if it helps? (do model comparison with original version?). Need 3 instead of 4 tips because only one locus is potentially allelic</t>
+  </si>
+  <si>
+    <t>treat 6399 as two dips, 1tip each, no swapping (alleles are sister in the genetrees)</t>
   </si>
 </sst>
 </file>
@@ -644,11 +656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1DC76-E460-EA4B-9063-E4030A24E473}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -657,9 +669,11 @@
     <col min="2" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
+    <col min="10" max="10" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -673,19 +687,22 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -705,7 +722,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -725,7 +742,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -745,7 +762,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -765,7 +782,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -782,7 +799,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -796,7 +813,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -816,7 +833,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -836,7 +853,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -853,7 +870,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -867,7 +884,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -884,10 +901,13 @@
         <v>59</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -904,10 +924,10 @@
         <v>59</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -927,7 +947,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -944,7 +964,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1121,13 +1141,13 @@
         <v>5</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1141,13 +1161,13 @@
         <v>5</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1210,10 +1230,10 @@
         <v>58</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1233,10 +1253,10 @@
         <v>58</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1387,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1401,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1421,7 +1441,7 @@
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1441,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1455,7 +1475,7 @@
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1475,7 +1495,7 @@
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1489,7 +1509,7 @@
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1629,7 +1649,7 @@
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1649,7 +1669,7 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1669,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1689,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data/cystopteridaceae/20200810_vettingCopyNumber_again/copiesPerLocus.xlsx
+++ b/data/cystopteridaceae/20200810_vettingCopyNumber_again/copiesPerLocus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlrothfels/Box Sync/R_Python_etal/git_repositories/homologizer/data/cystopteridaceae/20200810_vettingCopyNumber_again/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259EBF4B-A06B-424D-A5F1-BBA05343B31C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FFEE16-63CA-884B-89D8-BC82434AABD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="2160" windowWidth="22060" windowHeight="17000" xr2:uid="{AE534D98-65A7-4D43-BDD4-51ADCD2EEBC6}"/>
   </bookViews>
@@ -659,8 +659,8 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/cystopteridaceae/20200810_vettingCopyNumber_again/copiesPerLocus.xlsx
+++ b/data/cystopteridaceae/20200810_vettingCopyNumber_again/copiesPerLocus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlrothfels/Box Sync/R_Python_etal/git_repositories/homologizer/data/cystopteridaceae/20200810_vettingCopyNumber_again/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3810E3-63E0-AB42-BCCA-2C8442E762D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1C4F11-9DF4-0B45-B84D-EC662794D876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="22060" windowHeight="17000" xr2:uid="{AE534D98-65A7-4D43-BDD4-51ADCD2EEBC6}"/>
+    <workbookView xWindow="14680" yWindow="460" windowWidth="22060" windowHeight="17000" xr2:uid="{AE534D98-65A7-4D43-BDD4-51ADCD2EEBC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,9 +247,6 @@
     <t>The GAP ones look like they might be allelic, rather than homeologs -- create a new tip?</t>
   </si>
   <si>
-    <t>CJRversion of script</t>
-  </si>
-  <si>
     <t>Fixed this, so that this accession is treated as two diploid individuals</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>see whether it might be justified to try this one with three tips instead of four</t>
+  </si>
+  <si>
+    <t>v1 script</t>
   </si>
 </sst>
 </file>
@@ -665,8 +665,8 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -693,26 +693,26 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -772,7 +772,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -863,7 +863,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
@@ -880,7 +880,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
@@ -910,10 +910,10 @@
         <v>59</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -933,7 +933,7 @@
         <v>59</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1014,7 +1014,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
@@ -1074,7 +1074,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
@@ -1134,7 +1134,7 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
@@ -1150,17 +1150,17 @@
         <v>5</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
@@ -1170,13 +1170,13 @@
         <v>5</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1242,7 +1242,7 @@
         <v>63</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J28" s="2"/>
     </row>
@@ -1266,7 +1266,7 @@
         <v>63</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J29" s="2"/>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B34" t="s">
@@ -1418,7 +1418,7 @@
         <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1432,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1455,7 +1455,7 @@
         <v>61</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1495,7 +1495,7 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B42" t="s">
@@ -1511,11 +1511,11 @@
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D43" t="s">
@@ -1525,7 +1525,7 @@
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:10">
